--- a/Data/RuntimeIIR(completed)-Malware.xlsx
+++ b/Data/RuntimeIIR(completed)-Malware.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boxiang\Desktop\REU-Android-Spring2022\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E86A55-1B41-469F-9500-7A94B3B8F201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB6DCDA-5267-471E-AFF9-3DF56A5CC611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="10" r:id="rId1"/>
@@ -1245,7 +1245,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
